--- a/SolicitudCambios.xlsx
+++ b/SolicitudCambios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoexpressoriente1-my.sharepoint.com/personal/esimon_aeo_mx/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GIT\Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EB7B63-1411-4833-9A70-EB1C5D593540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29CB9EE-306A-4101-A111-2B7404A7C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8C849EB6-1F05-459B-9724-816276306471}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>DETALLES DEL CAMBIO</t>
   </si>
@@ -88,37 +87,19 @@
     <t>Alcance</t>
   </si>
   <si>
-    <t>El alcance no variará.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entregas </t>
   </si>
   <si>
-    <t>Debemos actualizar 3 módulos ( Personal, Operadores y Operador-Camión)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Costo </t>
   </si>
   <si>
-    <t xml:space="preserve">N/A </t>
-  </si>
-  <si>
     <t>Recursos</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrollador Web </t>
-  </si>
-  <si>
     <t xml:space="preserve">Línea de tiempo </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t xml:space="preserve">Partes interesadas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este cambio tiene un impacto importante en las actividades del equipo de Recursos Humanos para agilizar su trabajo. </t>
   </si>
   <si>
     <t>ANÁLISIS DE RIESGOS</t>
@@ -711,6 +692,240 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -720,15 +935,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -770,231 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1299,7 @@
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+      <selection activeCell="F27" sqref="F27:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,261 +1323,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="110"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="20">
         <f ca="1">TODAY()</f>
-        <v>45999</v>
+        <v>46041</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
-      <c r="O7" s="112"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112" t="s">
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="118"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="6"/>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="102" t="s">
+      <c r="F12" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="103"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="7"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="105"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="N12" s="9" t="s">
@@ -1607,139 +1588,139 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="56"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="C14" s="107" t="s">
+      <c r="A14" s="56"/>
+      <c r="C14" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="C15" s="107" t="s">
+      <c r="A15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
+      <c r="A16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="42"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="99"/>
+      <c r="A17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="45"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="C18" s="107" t="s">
+      <c r="A18" s="56"/>
+      <c r="C18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="93"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="96"/>
+      <c r="A19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="42"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="99"/>
+      <c r="A20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
@@ -1747,488 +1728,509 @@
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="79" t="s">
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="81"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="74" t="s">
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="82" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="84"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="74" t="s">
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="65"/>
+    </row>
+    <row r="26" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="82" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="84"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="74" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="68"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="82" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="84"/>
-    </row>
-    <row r="26" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="75" t="s">
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="Q30" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="82" t="s">
+    </row>
+    <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="100"/>
+      <c r="Q31" s="18"/>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+    </row>
+    <row r="33" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="47"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="84"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="87"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="90"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="Q30" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="70"/>
-      <c r="Q31" s="18"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-    </row>
-    <row r="33" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="51"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="81"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="54"/>
+      <c r="A34" s="47"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="84"/>
     </row>
     <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
-      <c r="C36" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="59"/>
-      <c r="F36" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="62"/>
+      <c r="C36" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="89"/>
+      <c r="F36" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="92"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="42"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="117"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="P36" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q36" s="45"/>
+      <c r="M36" s="112"/>
+      <c r="N36" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="76"/>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="55"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="40"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="47"/>
+      <c r="C37" s="85"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="119"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="115"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="78"/>
     </row>
     <row r="38" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="58"/>
+      <c r="C39" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="88"/>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
+      <c r="C41" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="108"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="36"/>
+      <c r="J41" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="111"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="22"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="19"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C44" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
+      <c r="C44" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="108"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="36"/>
+      <c r="J44" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
+      <c r="O44" s="111"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="105"/>
       <c r="I45" s="22"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="22"/>
       <c r="Q45" s="19"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
+      <c r="C47" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="108"/>
       <c r="I47" s="23"/>
-      <c r="J47" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="36"/>
+      <c r="J47" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="111"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="27"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
       <c r="I48" s="22"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="19"/>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C50" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
+      <c r="C50" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="108"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="36"/>
+      <c r="J50" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="111"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="3:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="25"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="105"/>
       <c r="I51" s="22"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="50"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C5:O5"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="F33:Q34"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:Q39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="C27:E28"/>
+    <mergeCell ref="F22:Q22"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F24:Q24"/>
+    <mergeCell ref="F25:Q25"/>
+    <mergeCell ref="F26:Q26"/>
+    <mergeCell ref="F27:Q28"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F15:Q17"/>
     <mergeCell ref="F18:Q20"/>
     <mergeCell ref="A1:Q2"/>
@@ -2245,51 +2247,18 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="K9:O9"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="F22:Q22"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F25:Q25"/>
-    <mergeCell ref="F26:Q26"/>
-    <mergeCell ref="F27:Q28"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="F33:Q34"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:Q39"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C30:O30"/>
-    <mergeCell ref="C31:O31"/>
-    <mergeCell ref="C33:E34"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C5:O5"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14:Q14" xr:uid="{44AD0719-B83E-457E-8563-5739628B6D01}">
